--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject15.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject15.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>1</v>
+        <v>0.75467294931717321</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>0</v>
+        <v>0.98901406658939872</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -296,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -329,21 +329,21 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.53213556074710966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>0.5229439377564884</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0</v>
+        <v>0.86370830959680789</v>
       </c>
       <c r="AE2" s="0">
-        <v>0</v>
+        <v>0.8807383871072566</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.72380411902231923</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>0</v>
+        <v>0.75597330812934105</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>0</v>
+        <v>0.87890893984606933</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.70748742487170535</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.71337638464248476</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
+        <v>0.65222640911124552</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -923,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.88498095499128082</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0</v>
+        <v>0.96175945974449017</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.62089572452371589</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.80602507899354148</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.92260976868060118</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>0</v>
+        <v>0.53840600382194426</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.64164498174105877</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.84312693604464151</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.98304685174672723</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0</v>
+        <v>0.51420463396928162</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="0">
-        <v>0</v>
+        <v>0.89843871415690557</v>
       </c>
       <c r="AN6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0</v>
+        <v>0.55837097299380622</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>0</v>
+        <v>0.62177756427468911</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0</v>
+        <v>0.55093061522080866</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.80483654249778858</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0</v>
+        <v>0.85434866458719405</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.50434165159579558</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>0</v>
+        <v>0.71360100673503668</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>0</v>
+        <v>0.72011670836784591</v>
       </c>
     </row>
     <row r="9">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.87749156407396178</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>1</v>
+        <v>0.86259362990613608</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0</v>
+        <v>0.98253814556505537</v>
       </c>
       <c r="AK9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.52374251040486619</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.60954390927192104</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
+        <v>0.63037748551124473</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>0</v>
+        <v>0.68273198359934617</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>0</v>
+        <v>0.66825209227382276</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0</v>
+        <v>0.52495394003800722</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0</v>
+        <v>0.77276109181609209</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>0.89049317857939092</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0.55726959872355697</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0</v>
+        <v>0.59420012951951151</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.62773752671535288</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.9229246775708102</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>0.678207600558141</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0.88502850376609699</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2627,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.80766002652761237</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.68161492078424324</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0</v>
+        <v>0.92365084280465881</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.87417671401344221</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -2974,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>0</v>
+        <v>0.60382084454904761</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0</v>
+        <v>0.64070080948056618</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>0.73609019227292061</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0</v>
+        <v>0.91741521646419355</v>
       </c>
       <c r="W15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0</v>
+        <v>0.84945897936879045</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>0</v>
+        <v>0.89837969622824121</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.51062526736698166</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.63008006429192176</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>0.6171099465825266</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.75078042590870198</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.97644466317135636</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0</v>
+        <v>0.55106647270066156</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>0</v>
+        <v>0.99964256192350565</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.61768817106129248</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.73298592115916872</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0</v>
+        <v>0.8679732945272749</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.93973055921909809</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.65553602971308611</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>0</v>
+        <v>0.59034632989857416</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -4010,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.57821936011576403</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
       </c>
       <c r="BI19" s="0">
-        <v>0</v>
+        <v>0.98866463690129225</v>
       </c>
       <c r="BJ19" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>1</v>
+        <v>0.51640795921254079</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.83558596994910894</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.76214844095162659</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0</v>
+        <v>0.91074593094566803</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.54920855950683722</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="0">
-        <v>0</v>
+        <v>0.98996165036138362</v>
       </c>
       <c r="AB21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0</v>
+        <v>0.80676393846636163</v>
       </c>
     </row>
     <row r="22">
@@ -4496,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>0</v>
+        <v>0.59386476340752237</v>
       </c>
       <c r="P22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.91118946984148952</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0</v>
+        <v>0.59033311969029001</v>
       </c>
       <c r="AQ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0</v>
+        <v>0.93998537394702297</v>
       </c>
       <c r="G23" s="0">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0</v>
+        <v>0.84819276244431285</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.61143326650828245</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.88913810381887448</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0</v>
+        <v>0.71810257385302911</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>0</v>
+        <v>0.54454137791666146</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>1</v>
+        <v>0.70018302613093331</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>0</v>
+        <v>0.64500881032769597</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.99517084867771044</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.73434230841844705</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.72101113306785081</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5210,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>0</v>
+        <v>0.92910118465759273</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.78904429685137301</v>
       </c>
     </row>
     <row r="26">
@@ -5335,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>1</v>
+        <v>0.85041281036098626</v>
       </c>
       <c r="U26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.71377150471016071</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5404,16 +5404,16 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>0</v>
+        <v>0.60240038280681218</v>
       </c>
       <c r="AR26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>0</v>
+        <v>0.60671863813065463</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="0">
-        <v>0</v>
+        <v>0.53195938059335601</v>
       </c>
       <c r="AZ26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.77193929086921598</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0</v>
+        <v>0.86758149390323913</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.69273103927472213</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.68337895922582925</v>
       </c>
       <c r="AD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5613,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0</v>
+        <v>0.71354779668634549</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0</v>
+        <v>0.64243117237778313</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>0</v>
+        <v>0.65934579282230654</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>0</v>
+        <v>0.53629980283266199</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>0</v>
+        <v>0.91343480345629424</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0</v>
+        <v>0.87285642714262124</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.76258141617615594</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6058,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="0">
-        <v>0</v>
+        <v>0.69878628711146207</v>
       </c>
       <c r="BI29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.51255584446167746</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>1</v>
+        <v>0.94279007144098625</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.51118252572251921</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0</v>
+        <v>0.91658016084258254</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6308,10 +6308,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1</v>
+        <v>0.65997683358818127</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.72066781681328318</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>0</v>
+        <v>0.70934789974829582</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0</v>
+        <v>0.56693567128593436</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.69579858148695251</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6544,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0</v>
+        <v>0.75007035640681652</v>
       </c>
       <c r="L32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0</v>
+        <v>0.53288505573492673</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AM32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>0</v>
+        <v>0.82805228729510749</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.94407773782295223</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>0</v>
+        <v>0.57570338744458605</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.68303051175516849</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6846,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0</v>
+        <v>0.55300721004027042</v>
       </c>
       <c r="AR33" s="0">
-        <v>0</v>
+        <v>0.98336421075952796</v>
       </c>
       <c r="AS33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0.91397885816504432</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6935,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.80367987389429418</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.9070678836546151</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0</v>
+        <v>0.87001477372812119</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7121,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.78967377089661428</v>
       </c>
       <c r="BO34" s="0">
-        <v>0</v>
+        <v>0.81281876931468289</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.95712290969037883</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0</v>
+        <v>0.92488989424498591</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0</v>
+        <v>0.63946098052055489</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="0">
-        <v>0</v>
+        <v>0.67346539012461903</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0</v>
+        <v>0.94456882420726962</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.78830347021182046</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.89200966163058271</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.56683520638458629</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.94836626386905065</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0</v>
+        <v>0.64656301004985939</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>0</v>
+        <v>0.72253287144116007</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.7431541473424198</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.72895137093773266</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0</v>
+        <v>0.6163558369093991</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0</v>
+        <v>0.5457206618809467</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>0.92144222316702473</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
+        <v>0.90270312090697802</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>0.93096934061136116</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.8836550893796391</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7873,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.51123819492963274</v>
       </c>
       <c r="AQ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0</v>
+        <v>0.87962069321055525</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0</v>
+        <v>0.96470932343928184</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.58156581912062455</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>1</v>
+        <v>0.80652625306002113</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>1</v>
+        <v>0.9874407272599558</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.99064001805651269</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.66535262524720773</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.81886542035597976</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>1</v>
+        <v>0.61870528246724465</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8389,19 +8389,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>0</v>
+        <v>0.84229249843077603</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.91797754877577908</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.91602589349449004</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>0</v>
+        <v>0.75677982154795487</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.80275492621832589</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>0</v>
+        <v>0.80123415503464113</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0</v>
+        <v>0.90048413359830437</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.70601614507069876</v>
       </c>
       <c r="AM42" s="0">
-        <v>1</v>
+        <v>0.8113006903838107</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.85287234501690201</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.66381974716012759</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>0</v>
+        <v>0.93197011388553619</v>
       </c>
       <c r="AA43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>0</v>
+        <v>0.83109640287862785</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>1</v>
+        <v>0.7008736619462137</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>0</v>
+        <v>0.69993482731913259</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -9061,10 +9061,10 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>0.82324011508524619</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="0">
-        <v>0</v>
+        <v>0.762153467312493</v>
       </c>
       <c r="AH44" s="0">
         <v>0</v>
@@ -9112,19 +9112,19 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.82864367949538353</v>
       </c>
       <c r="AU44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>0</v>
+        <v>0.77642600117939498</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9291,13 +9291,13 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.50751705461490348</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.67118819285672515</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="BG45" s="0">
-        <v>0</v>
+        <v>0.93142939006197012</v>
       </c>
       <c r="BH45" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9473,10 +9473,10 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0</v>
+        <v>0.5533261455512557</v>
       </c>
       <c r="AA46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.88356681031349282</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.65174744113552818</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="BC46" s="0">
-        <v>0</v>
+        <v>0.92410741726606749</v>
       </c>
       <c r="BD46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>0.99408914537612714</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>0.92531477939325169</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>0.75150599212054381</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.95737047288307475</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9784,19 +9784,19 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0</v>
+        <v>0.73743632549090277</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>0</v>
+        <v>0.84386427813075204</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0</v>
+        <v>0.84171428152448358</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>0.7119954790225802</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.78897541064536991</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.55450128987158132</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0</v>
+        <v>0.67256115091972446</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>0</v>
+        <v>0.66311920936997271</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.72716742201242746</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0</v>
+        <v>0.53178167993492564</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.99495172033211521</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>0.76266934265754338</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="0">
-        <v>0</v>
+        <v>0.88647190012845756</v>
       </c>
       <c r="AA51" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>0</v>
+        <v>0.92790726860407413</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0</v>
+        <v>0.61925194108978143</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0</v>
+        <v>0.85822055936520858</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0</v>
+        <v>0.87599393831621319</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52" s="0">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10885,13 +10885,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>0</v>
+        <v>0.95243379670166139</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0.60579409147330598</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>0</v>
+        <v>0.98855413290170202</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0</v>
+        <v>0.70457250428277307</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11169,10 +11169,10 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.55017325040315956</v>
       </c>
       <c r="AQ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>0</v>
+        <v>0.67425268398431126</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0.80889251439542709</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.91865599947410581</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11330,13 +11330,13 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0</v>
+        <v>0.82562010842851652</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>1</v>
+        <v>0.80800618491131138</v>
       </c>
       <c r="AR55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0</v>
+        <v>0.57965662667018591</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0.59081382479117295</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="BL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM56" s="0">
         <v>0</v>
@@ -11656,15 +11656,15 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>0</v>
+        <v>0.65009541393473258</v>
       </c>
       <c r="BP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11703,16 +11703,16 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.59397968562545667</v>
       </c>
       <c r="Q57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>0</v>
+        <v>0.91865708760199805</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.63681854767453361</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.97956543579313049</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0</v>
+        <v>0.73297896943461749</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.92175888176378407</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>0</v>
+        <v>0.76675135725034038</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0</v>
+        <v>0.50413061773714452</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.60719814552017481</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12202,13 +12202,13 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>0</v>
+        <v>0.94440352905321467</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
       </c>
       <c r="AS59" s="0">
-        <v>0</v>
+        <v>0.83353479358609084</v>
       </c>
       <c r="AT59" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.53712971566673473</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>0</v>
+        <v>0.7883431009860522</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12291,10 +12291,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.96388511247618402</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.59391912886326503</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0">
-        <v>0</v>
+        <v>0.77093856763808744</v>
       </c>
       <c r="AD60" s="0">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="0">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>0</v>
+        <v>0.89485322768958397</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.85952762170465258</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>0</v>
+        <v>0.93930708634237203</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0">
-        <v>0</v>
+        <v>0.65582207127058312</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>0</v>
+        <v>0.88487312645051164</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12641,10 +12641,10 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>0</v>
+        <v>0.55096701970523365</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>0</v>
+        <v>0.63093282535371287</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0</v>
+        <v>0.84289913583344689</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12817,13 +12817,13 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>0</v>
+        <v>0.75958735914591302</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>0.78837470095441797</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0</v>
+        <v>0.6523688854294577</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>0</v>
+        <v>0.60975460616215604</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13038,16 +13038,16 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>0</v>
+        <v>0.52651324479084671</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>0</v>
+        <v>0.83012429490563577</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0</v>
+        <v>0.79409885421296211</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="BD64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.84929801843254116</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0</v>
+        <v>0.55104933521535471</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.84736151666996218</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13480,13 +13480,13 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>0</v>
+        <v>0.64050927789635792</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13530,10 +13530,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>0.93481514647507002</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0</v>
+        <v>0.80278295840065417</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.5746497698492401</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.65084454892589994</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0</v>
+        <v>0.69121903905611126</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13835,13 +13835,13 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
       </c>
       <c r="AN67" s="0">
-        <v>1</v>
+        <v>0.66564654114361255</v>
       </c>
       <c r="AO67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>0.97377192648237898</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0</v>
+        <v>0.81336316011840826</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.79328199355768048</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>0</v>
+        <v>0.57046649579971453</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0</v>
+        <v>0.67234619303612608</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.68240806455652925</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject15.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject15.xlsx
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>0.98901406658939872</v>
+        <v>0.99408914537612714</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.53213556074710966</v>
+        <v>0.79328199355768048</v>
       </c>
     </row>
     <row r="2">
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>0.5229439377564884</v>
+        <v>0.73609019227292061</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.75597330812934105</v>
+        <v>0.92144222316702473</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>0.87890893984606933</v>
+        <v>0.93930708634237203</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.70748742487170535</v>
+        <v>0.80602507899354148</v>
       </c>
       <c r="F4" s="0">
-        <v>0.71337638464248476</v>
+        <v>0.84312693604464151</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.65222640911124552</v>
+        <v>0.90270312090697802</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0.88498095499128082</v>
+        <v>0.96388511247618402</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.62089572452371589</v>
+        <v>0.72380411902231923</v>
       </c>
       <c r="D5" s="0">
         <v>0.80602507899354148</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.53840600382194426</v>
+        <v>0.57570338744458605</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0.51420463396928162</v>
+        <v>0.93998537394702297</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.55837097299380622</v>
+        <v>0.78897541064536991</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>0.62177756427468911</v>
+        <v>0.76675135725034038</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0.55093061522080866</v>
+        <v>0.93481514647507002</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.50434165159579558</v>
+        <v>0.98304685174672723</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.71360100673503668</v>
+        <v>0.87285642714262124</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.86259362990613608</v>
+        <v>0.94279007144098625</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.52374251040486619</v>
+        <v>0.87749156407396178</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.60954390927192104</v>
+        <v>0.62773752671535288</v>
       </c>
       <c r="M10" s="0">
-        <v>0.63037748551124473</v>
+        <v>0.80766002652761237</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.68273198359934617</v>
+        <v>0.70934789974829582</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>0.66825209227382276</v>
+        <v>0.84289913583344689</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.52495394003800722</v>
+        <v>0.65934579282230654</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.89049317857939092</v>
+        <v>0.96470932343928184</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>0.55726959872355697</v>
+        <v>0.59081382479117295</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0.59420012951951151</v>
+        <v>0.78837470095441797</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.678207600558141</v>
+        <v>0.84229249843077603</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.68161492078424324</v>
+        <v>0.9229246775708102</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.92365084280465881</v>
+        <v>0.94456882420726962</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0.64070080948056618</v>
+        <v>0.79409885421296211</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.51062526736698166</v>
+        <v>0.91797754877577908</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.55106647270066156</v>
+        <v>0.67256115091972446</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.61768817106129248</v>
+        <v>0.63008006429192176</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.73298592115916872</v>
+        <v>0.93973055921909809</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>0.59034632989857416</v>
+        <v>0.80123415503464113</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.57821936011576403</v>
+        <v>0.60719814552017481</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.51640795921254079</v>
+        <v>0.85041281036098626</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0.83558596994910894</v>
+        <v>0.91865599947410581</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0.76214844095162659</v>
+        <v>0.97956543579313049</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.54920855950683722</v>
+        <v>0.61143326650828245</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>0.59386476340752237</v>
+        <v>0.91741521646419355</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.91118946984148952</v>
+        <v>0.99517084867771044</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.59033311969029001</v>
+        <v>0.90048413359830437</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0.84819276244431285</v>
+        <v>0.8679732945272749</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0.71810257385302911</v>
+        <v>0.76266934265754338</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>0.54454137791666146</v>
+        <v>0.60975460616215604</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.70018302613093331</v>
+        <v>0.9874407272599558</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>0.64500881032769597</v>
+        <v>0.95243379670166139</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0.99517084867771044</v>
       </c>
       <c r="W25" s="0">
-        <v>0.73434230841844705</v>
+        <v>0.88913810381887448</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0.71377150471016071</v>
+        <v>0.7431541473424198</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>0.60240038280681218</v>
+        <v>0.93197011388553619</v>
       </c>
       <c r="AR26" s="0">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="0">
-        <v>0.53195938059335601</v>
+        <v>0.88647190012845756</v>
       </c>
       <c r="AZ26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0.77193929086921598</v>
+        <v>0.92260976868060118</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0.86758149390323913</v>
+        <v>0.98996165036138362</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.69273103927472213</v>
+        <v>0.72101113306785081</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.68337895922582925</v>
+        <v>0.76258141617615594</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>0.71354779668634549</v>
+        <v>0.82324011508524619</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>0.53629980283266199</v>
+        <v>0.93096934061136116</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="0">
-        <v>0.69878628711146207</v>
+        <v>0.77093856763808744</v>
       </c>
       <c r="BI29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0.51255584446167746</v>
+        <v>0.86370830959680789</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0.51118252572251921</v>
+        <v>0.65553602971308611</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6308,10 +6308,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.65997683358818127</v>
+        <v>0.75467294931717321</v>
       </c>
       <c r="B31" s="0">
-        <v>0.72066781681328318</v>
+        <v>0.8807383871072566</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0.56693567128593436</v>
+        <v>0.6171099465825266</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0.69579858148695251</v>
+        <v>0.99495172033211521</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0.75007035640681652</v>
+        <v>0.77276109181609209</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0.53288505573492673</v>
+        <v>0.84945897936879045</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0.68303051175516849</v>
+        <v>0.75078042590870198</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0.55300721004027042</v>
+        <v>0.83109640287862785</v>
       </c>
       <c r="AR33" s="0">
         <v>0.98336421075952796</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.80367987389429418</v>
+        <v>0.95712290969037883</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.9070678836546151</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0.92488989424498591</v>
+        <v>0.92790726860407413</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0.63946098052055489</v>
+        <v>0.91865708760199805</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="0">
-        <v>0.67346539012461903</v>
+        <v>0.98253814556505537</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.78830347021182046</v>
+        <v>0.9070678836546151</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.89200966163058271</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.56683520638458629</v>
+        <v>0.8836550893796391</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0.64656301004985939</v>
+        <v>0.89485322768958397</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>0.72253287144116007</v>
+        <v>0.89837969622824121</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.72895137093773266</v>
+        <v>0.89200966163058271</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0.6163558369093991</v>
+        <v>0.75150599212054381</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0.5457206618809467</v>
+        <v>0.70457250428277307</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.51123819492963274</v>
+        <v>0.70601614507069876</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0.87962069321055525</v>
+        <v>0.89843871415690557</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.58156581912062455</v>
+        <v>0.99064001805651269</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0.80652625306002113</v>
+        <v>0.8113006903838107</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.66535262524720773</v>
+        <v>0.91602589349449004</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.81886542035597976</v>
+        <v>0.85287234501690201</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>0.61870528246724465</v>
+        <v>0.66564654114361255</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0.80275492621832589</v>
+        <v>0.80483654249778858</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0.7008736619462137</v>
+        <v>0.80800618491131138</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>0.69993482731913259</v>
+        <v>0.94440352905321467</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="0">
-        <v>0.762153467312493</v>
+        <v>0.98336421075952796</v>
       </c>
       <c r="AH44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.82864367949538353</v>
+        <v>0.88356681031349282</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.50751705461490348</v>
+        <v>0.94836626386905065</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.5533261455512557</v>
+        <v>0.60671863813065463</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.88356681031349282</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.65174744113552818</v>
+        <v>0.67118819285672515</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0.92531477939325169</v>
+        <v>0.92910118465759273</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0.73743632549090277</v>
+        <v>0.88487312645051164</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0.84171428152448358</v>
+        <v>0.87599393831621319</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0.7119954790225802</v>
+        <v>0.97377192648237898</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0.55450128987158132</v>
+        <v>0.87417671401344221</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.66311920936997271</v>
+        <v>0.91343480345629424</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.72716742201242746</v>
+        <v>0.95737047288307475</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.53178167993492564</v>
+        <v>0.64243117237778313</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0.61925194108978143</v>
+        <v>0.91658016084258254</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.85822055936520858</v>
+        <v>0.87001477372812119</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>0.60579409147330598</v>
+        <v>0.91397885816504432</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0.55017325040315956</v>
+        <v>0.66381974716012759</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>0.67425268398431126</v>
+        <v>0.83012429490563577</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>0.80889251439542709</v>
+        <v>0.88502850376609699</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0.82562010842851652</v>
+        <v>0.82805228729510749</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0.57965662667018591</v>
+        <v>0.92410741726606749</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>0.65009541393473258</v>
+        <v>0.81336316011840826</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0.59397968562545667</v>
+        <v>0.97644466317135636</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0.73297896943461749</v>
+        <v>0.75677982154795487</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0.50413061773714452</v>
+        <v>0.60382084454904761</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="0">
-        <v>0.83353479358609084</v>
+        <v>0.93142939006197012</v>
       </c>
       <c r="AT59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.53712971566673473</v>
+        <v>0.63681854767453361</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0.96388511247618402</v>
       </c>
       <c r="E60" s="0">
-        <v>0.59391912886326503</v>
+        <v>0.64164498174105877</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.85952762170465258</v>
+        <v>0.92175888176378407</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0">
-        <v>0.65582207127058312</v>
+        <v>0.98866463690129225</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>0.55096701970523365</v>
+        <v>0.98855413290170202</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>0.63093282535371287</v>
+        <v>0.96175945974449017</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>0.75958735914591302</v>
+        <v>0.77642600117939498</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0.6523688854294577</v>
+        <v>0.91074593094566803</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>0.52651324479084671</v>
+        <v>0.84386427813075204</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0.55104933521535471</v>
+        <v>0.85434866458719405</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0.84736151666996218</v>
+        <v>0.94407773782295223</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>0.64050927789635792</v>
+        <v>0.7883431009860522</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.80278295840065417</v>
+        <v>0.99964256192350565</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0.5746497698492401</v>
+        <v>0.78967377089661428</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.65084454892589994</v>
+        <v>0.84929801843254116</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0.69121903905611126</v>
+        <v>0.81281876931468289</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>0.57046649579971453</v>
+        <v>0.72011670836784591</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0.67234619303612608</v>
+        <v>0.80676393846636163</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.68240806455652925</v>
+        <v>0.78904429685137301</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
